--- a/invoice_gen/TEMPLATE/OJY.xlsx
+++ b/invoice_gen/TEMPLATE/OJY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\automate invoice\invoice_gen\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\inv_pkl_contract_creation\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB0609E-09CD-423D-9ECA-78F39E73EBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83629A3A-A513-4BA6-8AE7-1C4937D12CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -904,6 +904,21 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -913,20 +928,20 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,20 +959,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -968,8 +971,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1545,7 +1548,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1561,33 +1564,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="45"/>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="76"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="47" t="s">
         <v>70</v>
       </c>
@@ -1596,28 +1599,28 @@
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="76"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="52" t="s">
         <v>6</v>
       </c>
@@ -1627,7 +1630,7 @@
       <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" s="40" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="52" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1640,7 @@
       <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" s="40" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="53" t="s">
         <v>8</v>
       </c>
@@ -1647,71 +1650,71 @@
       <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" s="40" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" s="40" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:6" s="40" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" s="40" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" s="40" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="1:6" s="41" customFormat="1" ht="39" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="92"/>
+      <c r="B14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -1743,34 +1746,34 @@
       <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:7" s="40" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
     </row>
     <row r="19" spans="1:7" s="40" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="56"/>
@@ -1846,11 +1849,11 @@
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:7" s="42" customFormat="1" ht="41.1" customHeight="1">
       <c r="A29" s="50" t="s">
@@ -1858,11 +1861,11 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
     </row>
     <row r="30" spans="1:7" s="42" customFormat="1" ht="29.1" customHeight="1">
       <c r="A30" s="50" t="s">
@@ -1870,11 +1873,11 @@
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
     </row>
     <row r="31" spans="1:7" s="42" customFormat="1" ht="29.1" customHeight="1">
       <c r="A31" s="50" t="s">
@@ -1910,24 +1913,24 @@
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" s="43" customFormat="1" ht="57" customHeight="1">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="71"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="60"/>
       <c r="D34" s="56"/>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A19:F19"/>
@@ -1937,11 +1940,11 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.35763888888888901" right="0.35763888888888901" top="0.80277777777777803" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
@@ -1983,92 +1986,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="27" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
     </row>
@@ -2242,14 +2245,14 @@
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="39"/>
-      <c r="L21" s="77"/>
+      <c r="L21" s="82"/>
     </row>
     <row r="22" spans="1:12" ht="27" customHeight="1">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="31"/>
@@ -2258,38 +2261,38 @@
       <c r="I22" s="11"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="77"/>
+      <c r="L22" s="82"/>
     </row>
     <row r="23" spans="1:12" ht="27" customHeight="1">
       <c r="A23" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:12" ht="27" customHeight="1">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="38"/>
@@ -2345,8 +2348,8 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
     </row>
     <row r="31" spans="1:12" ht="27" customHeight="1">
       <c r="F31" s="18"/>
@@ -2357,17 +2360,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="N22:N34">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
@@ -2409,70 +2412,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="F7" s="5" t="s">
@@ -2595,11 +2598,11 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="2"/>
       <c r="G22" s="11"/>
     </row>
@@ -2607,47 +2610,47 @@
       <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="F27" s="11" t="s">
@@ -2689,17 +2692,17 @@
     <row r="61" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:J33">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>

--- a/invoice_gen/TEMPLATE/OJY.xlsx
+++ b/invoice_gen/TEMPLATE/OJY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\inv_pkl_contract_creation\invoice_gen\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\tools\inv_pkl_contract_creation - Copy\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83629A3A-A513-4BA6-8AE7-1C4937D12CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB33BF-C32D-4D7E-B877-5B1AA379B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="10" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Packing list'!$A$13:$B$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Contract!$A$1:$F$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Invoice!$A$1:$G$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Contract!$A$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Invoice!$A$1:$G$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Packing list'!$A$1:$I$29</definedName>
   </definedNames>
   <calcPr calcId="191029" fullPrecision="0"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>SALES CONTRACT</t>
   </si>
@@ -82,48 +82,10 @@
     <t>OUCANYON FURNITURE ( VIETNAM) CO.,LTD.</t>
   </si>
   <si>
-    <t>NO.3A,2A STREET, VIETNAM - SINGAPORE INDUSTRIAL PARK, TINH PHONG COMMUNE, SON TINH DISTRICT, QUANG NGAI PROVINCE, VIETNAM</t>
-  </si>
-  <si>
     <t>BÊN MUA</t>
   </si>
   <si>
     <t>CÔNG TY TNHH OUCANYON FURNITURE ( VIỆT NAM)</t>
-  </si>
-  <si>
-    <t>số 3A, Đường số 2A, KCN Việt Nam-Singapore, Xã Tịnh Phong, Huyện Sơn Tịnh, Tỉnh Quảng Ngãi, Việt Nam</t>
-  </si>
-  <si>
-    <t>Contact Person : LEOHUNG   Tel: 0084-0388087768</t>
-  </si>
-  <si>
-    <t>EMAll:leohung.happyfur@ounoya.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">The undersigned Sellers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Buyers and Beneficiary have agreed to close the  following transactions according to the terms and conditions Stipulated below:</t>
-    </r>
   </si>
   <si>
     <t>Người bán, người mua và người thụ hưởng đã thống nhất đồng ý các giao dịch sau theo các điều khoản và điều kiện được quy định dưới đây:</t>
@@ -228,12 +190,6 @@
   </si>
   <si>
     <t>CONSIGNEE :</t>
-  </si>
-  <si>
-    <t>CONTACT: LEOHUNG TEL: 0084-0388087768</t>
-  </si>
-  <si>
-    <t>EMAIL: leohung.happyfur@ounoya.com</t>
   </si>
   <si>
     <t xml:space="preserve">SHIP: </t>
@@ -306,41 +262,6 @@
   </si>
   <si>
     <t>T/T</t>
-  </si>
-  <si>
-    <t>NO.3A,2A STREET, VIETNAM - SINGAPORE INDUSTRIAL PARK, TINH PHONG COMMUNE, SON TINH DISTRICT,</t>
-  </si>
-  <si>
-    <t>QUANG NGAI PROVINCE, VIETNAM</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">CONTACT: LEOHUNG TEL: 0084-0388087768 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EMAIL: leohung.happyfur@ounoya.com</t>
-    </r>
   </si>
   <si>
     <t>SHIP:</t>
@@ -416,6 +337,28 @@
   <si>
     <t>JFINV</t>
   </si>
+  <si>
+    <t>NO.3A , 2A STREET, VSIP, THO PHONG COMMUNE, QUANG NGAI PROVINCE,VIET NAM.</t>
+  </si>
+  <si>
+    <t>Số 3A, đường 2A, Khu công nghiệp Việt Nam - Singapore, Xã Thọ Phong, Tỉnh Quảng Ngãi, Việt Nam</t>
+  </si>
+  <si>
+    <t>Contact Person : Ms. Suzy 0985369078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL: SUZYHUYNH.HAPPYFUR@OUNOYA.COM
+</t>
+  </si>
+  <si>
+    <t>The undersigned Sellers 、Buyers and Beneficiary have agreed to close the  following transactions according to the terms and conditions Stipulated below:</t>
+  </si>
+  <si>
+    <t>CONTACT: Ms. Suzy 0985369078</t>
+  </si>
+  <si>
+    <t>EMAIL: SUZYHUYNH.HAPPYFUR@OUNOYA.COM</t>
+  </si>
 </sst>
 </file>
 
@@ -426,7 +369,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,12 +437,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
@@ -617,12 +554,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -709,12 +640,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -749,19 +680,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -771,33 +696,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -805,67 +723,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -874,58 +792,65 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -971,8 +896,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -999,13 +933,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1319530</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1021,7 +955,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10067925" y="11220450"/>
+          <a:off x="10067925" y="10877550"/>
           <a:ext cx="3024505" cy="1334770"/>
           <a:chOff x="7095490" y="13465334"/>
           <a:chExt cx="4610436" cy="2150203"/>
@@ -1195,13 +1129,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1343660</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495466</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>256291</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1217,7 +1151,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11219581" y="9797181"/>
+          <a:off x="11219581" y="9095339"/>
           <a:ext cx="3031990" cy="1327636"/>
           <a:chOff x="7095490" y="13465334"/>
           <a:chExt cx="4610436" cy="2150203"/>
@@ -1545,157 +1479,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="44" customWidth="1"/>
-    <col min="7" max="16382" width="28.7109375" style="44" customWidth="1"/>
-    <col min="16383" max="16384" width="28.7109375" style="44"/>
+    <col min="1" max="1" width="18.42578125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="39" customWidth="1"/>
+    <col min="7" max="16382" width="28.7109375" style="39" customWidth="1"/>
+    <col min="16383" max="16384" width="28.7109375" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.95" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-    </row>
-    <row r="3" spans="1:6" s="40" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="1:6" s="35" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="40" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="71" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="35" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="40" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="35" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-    </row>
-    <row r="6" spans="1:6" s="40" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="52" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+    </row>
+    <row r="6" spans="1:6" s="35" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A6" s="63"/>
+      <c r="B6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" spans="1:6" s="40" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="52" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" s="35" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A7" s="63"/>
+      <c r="B7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" spans="1:6" s="40" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="53" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" s="35" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A8" s="63"/>
+      <c r="B8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-    </row>
-    <row r="9" spans="1:6" s="40" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:6" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-    </row>
-    <row r="10" spans="1:6" s="40" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="73" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6" s="35" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A10" s="63"/>
+      <c r="B10" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="1:6" s="40" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="73" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+    </row>
+    <row r="11" spans="1:6" s="35" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A11" s="63"/>
+      <c r="B11" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-    </row>
-    <row r="12" spans="1:6" s="40" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="73" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+    </row>
+    <row r="12" spans="1:6" s="35" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A12" s="63"/>
+      <c r="B12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-    </row>
-    <row r="13" spans="1:6" s="40" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A13" s="92" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="13" spans="1:6" s="35" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A13" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="67" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="72"/>
@@ -1703,238 +1637,222 @@
       <c r="E13" s="72"/>
       <c r="F13" s="72"/>
     </row>
-    <row r="14" spans="1:6" s="41" customFormat="1" ht="39" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="73" t="s">
+    <row r="14" spans="1:6" s="36" customFormat="1" ht="27" customHeight="1">
+      <c r="A14" s="50"/>
+      <c r="B14" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+    </row>
+    <row r="15" spans="1:6" s="36" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-    </row>
-    <row r="15" spans="1:6" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="92" t="s">
+      <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+    </row>
+    <row r="16" spans="1:6" s="36" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="50"/>
+      <c r="B16" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+    </row>
+    <row r="17" spans="1:7" s="36" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" spans="1:7" s="35" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A18" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+    </row>
+    <row r="19" spans="1:7" s="35" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A19" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-    </row>
-    <row r="16" spans="1:6" s="41" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="51" t="s">
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+    </row>
+    <row r="23" spans="1:7" s="37" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A23" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-    </row>
-    <row r="17" spans="1:7" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="55" t="s">
+      <c r="B23" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-    </row>
-    <row r="18" spans="1:7" s="40" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A18" s="73" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="56"/>
+    </row>
+    <row r="24" spans="1:7" s="37" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A24" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-    </row>
-    <row r="19" spans="1:7" s="40" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A19" s="74" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" spans="1:7" s="37" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A25" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="74" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="1:7" s="37" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A26" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="62"/>
-    </row>
-    <row r="24" spans="1:7" s="42" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A24" s="57" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" spans="1:7" s="37" customFormat="1" ht="45.95" customHeight="1">
+      <c r="A27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="61"/>
-    </row>
-    <row r="25" spans="1:7" s="42" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A25" s="50" t="s">
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+    </row>
+    <row r="28" spans="1:7" s="37" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A28" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-    </row>
-    <row r="26" spans="1:7" s="42" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A26" s="50" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27" spans="1:7" s="42" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+    </row>
+    <row r="29" spans="1:7" s="37" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A29" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+    </row>
+    <row r="30" spans="1:7" s="37" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="31" spans="1:7" s="37" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:7" s="38" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A32" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="1:6" s="38" customFormat="1" ht="57" customHeight="1">
+      <c r="A33" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-    </row>
-    <row r="28" spans="1:7" s="42" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A28" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-    </row>
-    <row r="29" spans="1:7" s="42" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A29" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-    </row>
-    <row r="30" spans="1:7" s="42" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A30" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-    </row>
-    <row r="31" spans="1:7" s="42" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A31" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" spans="1:7" s="42" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="59"/>
-    </row>
-    <row r="33" spans="1:6" s="43" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A33" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" s="43" customFormat="1" ht="57" customHeight="1">
-      <c r="A34" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="76"/>
+      <c r="F33" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
@@ -1949,7 +1867,7 @@
   <pageMargins left="0.35763888888888901" right="0.35763888888888901" top="0.80277777777777803" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="16383" man="1"/>
+    <brk id="36" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="38" man="1"/>
@@ -1963,7 +1881,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B14" sqref="B14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="27" customHeight="1"/>
@@ -1976,7 +1894,7 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="15" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="25.140625" customWidth="1"/>
@@ -1986,386 +1904,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="27" customHeight="1">
+      <c r="A2" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="27" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1">
+      <c r="A4" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="27" customHeight="1">
+      <c r="A5" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" ht="27" customHeight="1">
+      <c r="A6" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" ht="27" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="H7" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" ht="27" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="I7" s="58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="A3" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" ht="27" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="B8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="H8" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:11" ht="27" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="I8" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="F9" s="16"/>
+      <c r="H9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" ht="27" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="H7" s="63" t="s">
+      <c r="I9" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="F10" s="16"/>
+      <c r="H10" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="H8" s="65" t="s">
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" ht="27" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="27" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" ht="27" customHeight="1">
+      <c r="A13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="27" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18" t="s">
+      <c r="B13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="27" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="92"/>
+    </row>
+    <row r="15" spans="1:11" ht="27" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="92"/>
+    </row>
+    <row r="16" spans="1:11" ht="27" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+    </row>
+    <row r="17" spans="1:12" ht="27" customHeight="1">
+      <c r="A17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="H9" s="65" t="s">
+      <c r="B17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" ht="27" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:12" ht="27" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:12" ht="27" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+    </row>
+    <row r="21" spans="1:12" ht="27" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="34"/>
+      <c r="L21" s="80"/>
+    </row>
+    <row r="22" spans="1:12" ht="27" customHeight="1">
+      <c r="A22" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="H10" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="27" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="17"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="17"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:11" ht="27" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="17"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:11" ht="27" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="17"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:12" ht="27" customHeight="1">
-      <c r="A17" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:12" ht="27" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="18"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:12" ht="27" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="18"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:12" ht="27" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-    </row>
-    <row r="21" spans="1:12" ht="27" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="39"/>
-      <c r="L21" s="82"/>
-    </row>
-    <row r="22" spans="1:12" ht="27" customHeight="1">
-      <c r="A22" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="82"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:12" ht="27" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="38"/>
+      <c r="A23" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" ht="27" customHeight="1">
-      <c r="A24" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="38"/>
+      <c r="A24" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12" ht="27" customHeight="1">
-      <c r="A25" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="A25" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="1:12" ht="27" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="A26" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+        <v>31</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:12" ht="27" customHeight="1">
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="27" customHeight="1">
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="36.950000000000003" customHeight="1">
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:12" ht="27" customHeight="1">
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:12" ht="27" customHeight="1">
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
@@ -2388,10 +2306,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -2412,89 +2330,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="A1" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="A4" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="A5" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1">
-      <c r="A6" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="A6" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G8" s="9" t="str">
         <f>'Packing list'!I8</f>
@@ -2503,10 +2421,10 @@
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="10" t="str">
         <f>'Packing list'!I9</f>
@@ -2515,24 +2433,24 @@
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
@@ -2540,7 +2458,7 @@
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -2548,7 +2466,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F14" s="11"/>
@@ -2556,155 +2474,150 @@
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>66</v>
+      <c r="A17" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="F20" s="11"/>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
+      <c r="A20" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="2"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="G21" s="11"/>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A22" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A24" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="F27" s="11" t="s">
-        <v>36</v>
-      </c>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A23" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A24" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
+      <c r="F25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="F26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="69.75" customHeight="1">
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="F28" s="16" t="s">
-        <v>69</v>
-      </c>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="69.75" customHeight="1">
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="G30" s="11"/>
-    </row>
+    <row r="29" spans="1:7" ht="27.75" customHeight="1"/>
+    <row r="30" spans="1:7" ht="27.75" customHeight="1"/>
     <row r="31" spans="1:7" ht="27.75" customHeight="1"/>
-    <row r="32" spans="1:7" ht="27.75" customHeight="1"/>
-    <row r="33" ht="27.75" customHeight="1"/>
-    <row r="34" ht="24.75" customHeight="1"/>
+    <row r="32" spans="1:7" ht="24.75" customHeight="1"/>
+    <row r="33" ht="21" customHeight="1"/>
+    <row r="34" ht="21" customHeight="1"/>
     <row r="35" ht="21" customHeight="1"/>
     <row r="36" ht="21" customHeight="1"/>
     <row r="37" ht="21" customHeight="1"/>
     <row r="38" ht="21" customHeight="1"/>
     <row r="39" ht="21" customHeight="1"/>
     <row r="40" ht="21" customHeight="1"/>
-    <row r="41" ht="21" customHeight="1"/>
+    <row r="41" ht="25.5" customHeight="1"/>
     <row r="42" ht="21" customHeight="1"/>
-    <row r="43" ht="25.5" customHeight="1"/>
+    <row r="43" ht="21" customHeight="1"/>
     <row r="44" ht="21" customHeight="1"/>
     <row r="45" ht="21" customHeight="1"/>
     <row r="46" ht="21" customHeight="1"/>
-    <row r="47" ht="21" customHeight="1"/>
-    <row r="48" ht="21" customHeight="1"/>
-    <row r="49" ht="17.25" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
+    <row r="47" ht="17.25" customHeight="1"/>
+    <row r="59" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A26:G26"/>
+  <mergeCells count="12">
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B16:G16"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="J22:J33">
+  <conditionalFormatting sqref="J20:J31">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
     <cfRule type="uniqueValues" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
